--- a/Lr7/Task1/forecasted_data.xlsx
+++ b/Lr7/Task1/forecasted_data.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94860.25693688002</v>
+        <v>94860.25693688003</v>
       </c>
       <c r="C2" t="n">
-        <v>99752.28540791845</v>
+        <v>99752.28540791843</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +473,7 @@
         <v>87757.59523252668</v>
       </c>
       <c r="C3" t="n">
-        <v>95374.60296399772</v>
+        <v>95374.60296399771</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70535.37362171237</v>
+        <v>70535.37362171238</v>
       </c>
       <c r="C4" t="n">
-        <v>64629.4039883646</v>
+        <v>64629.40398836459</v>
       </c>
     </row>
     <row r="5">
@@ -499,7 +499,7 @@
         <v>8402.649028496746</v>
       </c>
       <c r="C5" t="n">
-        <v>7776.505688806123</v>
+        <v>7776.505688806121</v>
       </c>
     </row>
     <row r="6">
